--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H2">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N2">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q2">
-        <v>170.8033095136512</v>
+        <v>1005.63198326208</v>
       </c>
       <c r="R2">
-        <v>170.8033095136512</v>
+        <v>9050.687849358721</v>
       </c>
       <c r="S2">
-        <v>0.08956941619642884</v>
+        <v>0.2751277277968656</v>
       </c>
       <c r="T2">
-        <v>0.08956941619642884</v>
+        <v>0.2751277277968656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H3">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N3">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q3">
-        <v>43.17445862866769</v>
+        <v>186.577339026816</v>
       </c>
       <c r="R3">
-        <v>43.17445862866769</v>
+        <v>1679.196051241344</v>
       </c>
       <c r="S3">
-        <v>0.02264072672232128</v>
+        <v>0.05104511411651813</v>
       </c>
       <c r="T3">
-        <v>0.02264072672232128</v>
+        <v>0.05104511411651813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H4">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N4">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q4">
-        <v>73.11971497495</v>
+        <v>311.90142720672</v>
       </c>
       <c r="R4">
-        <v>73.11971497495</v>
+        <v>2807.11284486048</v>
       </c>
       <c r="S4">
-        <v>0.03834404732205793</v>
+        <v>0.08533214176981926</v>
       </c>
       <c r="T4">
-        <v>0.03834404732205793</v>
+        <v>0.08533214176981926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H5">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N5">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q5">
-        <v>28.14809490430592</v>
+        <v>121.056465868992</v>
       </c>
       <c r="R5">
-        <v>28.14809490430592</v>
+        <v>1089.508192820928</v>
       </c>
       <c r="S5">
-        <v>0.01476088744883981</v>
+        <v>0.0331194621332709</v>
       </c>
       <c r="T5">
-        <v>0.01476088744883981</v>
+        <v>0.0331194621332709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H6">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N6">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q6">
-        <v>462.7879420370366</v>
+        <v>640.073713244799</v>
       </c>
       <c r="R6">
-        <v>462.7879420370366</v>
+        <v>5760.663419203191</v>
       </c>
       <c r="S6">
-        <v>0.2426864321835121</v>
+        <v>0.1751157772213075</v>
       </c>
       <c r="T6">
-        <v>0.2426864321835121</v>
+        <v>0.1751157772213075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H7">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N7">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q7">
-        <v>116.980279329584</v>
+        <v>118.7544272516487</v>
       </c>
       <c r="R7">
-        <v>116.980279329584</v>
+        <v>1068.789845264838</v>
       </c>
       <c r="S7">
-        <v>0.06134456853254699</v>
+        <v>0.0324896545449762</v>
       </c>
       <c r="T7">
-        <v>0.06134456853254699</v>
+        <v>0.0324896545449762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H8">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N8">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q8">
-        <v>198.1163158485948</v>
+        <v>198.5218330377317</v>
       </c>
       <c r="R8">
-        <v>198.1163158485948</v>
+        <v>1786.696497339585</v>
       </c>
       <c r="S8">
-        <v>0.1038923824138647</v>
+        <v>0.05431297109760428</v>
       </c>
       <c r="T8">
-        <v>0.1038923824138647</v>
+        <v>0.05431297109760428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H9">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N9">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q9">
-        <v>76.26666573451733</v>
+        <v>77.05111105328123</v>
       </c>
       <c r="R9">
-        <v>76.26666573451733</v>
+        <v>693.459999479531</v>
       </c>
       <c r="S9">
-        <v>0.0399943112609474</v>
+        <v>0.02108017392162488</v>
       </c>
       <c r="T9">
-        <v>0.0399943112609474</v>
+        <v>0.02108017392162488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H10">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N10">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q10">
-        <v>250.6701902891925</v>
+        <v>406.54941085226</v>
       </c>
       <c r="R10">
-        <v>250.6701902891925</v>
+        <v>3658.94469767034</v>
       </c>
       <c r="S10">
-        <v>0.1314516836118813</v>
+        <v>0.1112265893553888</v>
       </c>
       <c r="T10">
-        <v>0.1314516836118813</v>
+        <v>0.1112265893553888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H11">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N11">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q11">
-        <v>63.36264672445369</v>
+        <v>75.42809747725201</v>
       </c>
       <c r="R11">
-        <v>63.36264672445369</v>
+        <v>678.8528772952681</v>
       </c>
       <c r="S11">
-        <v>0.03322743155229254</v>
+        <v>0.02063613868329853</v>
       </c>
       <c r="T11">
-        <v>0.03322743155229254</v>
+        <v>0.02063613868329853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H12">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N12">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q12">
-        <v>107.3101740174263</v>
+        <v>126.09318675759</v>
       </c>
       <c r="R12">
-        <v>107.3101740174263</v>
+        <v>1134.83868081831</v>
       </c>
       <c r="S12">
-        <v>0.05627355620945896</v>
+        <v>0.03449744294204737</v>
       </c>
       <c r="T12">
-        <v>0.05627355620945896</v>
+        <v>0.03449744294204737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H13">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N13">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q13">
-        <v>41.31002101792815</v>
+        <v>48.939806706674</v>
       </c>
       <c r="R13">
-        <v>41.31002101792815</v>
+        <v>440.458260360066</v>
       </c>
       <c r="S13">
-        <v>0.02166301388523332</v>
+        <v>0.01338928956331329</v>
       </c>
       <c r="T13">
-        <v>0.02166301388523332</v>
+        <v>0.01338928956331329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H14">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N14">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O14">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P14">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q14">
-        <v>148.937174406767</v>
+        <v>209.50083684095</v>
       </c>
       <c r="R14">
-        <v>148.937174406767</v>
+        <v>1885.50753156855</v>
       </c>
       <c r="S14">
-        <v>0.07810279437526724</v>
+        <v>0.05731668261446977</v>
       </c>
       <c r="T14">
-        <v>0.07810279437526724</v>
+        <v>0.05731668261446977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H15">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N15">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O15">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P15">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q15">
-        <v>37.6472908692773</v>
+        <v>38.86919798918999</v>
       </c>
       <c r="R15">
-        <v>37.6472908692773</v>
+        <v>349.8227819027099</v>
       </c>
       <c r="S15">
-        <v>0.01974227474947614</v>
+        <v>0.01063410303375897</v>
       </c>
       <c r="T15">
-        <v>0.01974227474947614</v>
+        <v>0.01063410303375897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H16">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N16">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O16">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P16">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q16">
-        <v>63.75897383256988</v>
+        <v>64.97765693542499</v>
       </c>
       <c r="R16">
-        <v>63.75897383256988</v>
+        <v>584.7989124188249</v>
       </c>
       <c r="S16">
-        <v>0.03343526586064328</v>
+        <v>0.01777703514581707</v>
       </c>
       <c r="T16">
-        <v>0.03343526586064328</v>
+        <v>0.01777703514581707</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H17">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N17">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O17">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P17">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q17">
-        <v>24.54459302877722</v>
+        <v>25.21939569015499</v>
       </c>
       <c r="R17">
-        <v>24.54459302877722</v>
+        <v>226.974561211395</v>
       </c>
       <c r="S17">
-        <v>0.01287120767522837</v>
+        <v>0.0068996960599195</v>
       </c>
       <c r="T17">
-        <v>0.01287120767522837</v>
+        <v>0.0068996960599195</v>
       </c>
     </row>
   </sheetData>
